--- a/potato.xlsx
+++ b/potato.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhammad/Documents/GitHub/FYP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhammad/Documents/Final-year-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A5E0B3BC-4AF8-1D47-89A6-0C039F4A859D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C9C6B0-EB31-6348-9806-21B61EC27C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="11540" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="potato" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -176,12 +176,15 @@
   </si>
   <si>
     <t>22 dec </t>
+  </si>
+  <si>
+    <t>ih</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1037,11 +1040,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1264,7 +1267,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44820</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44821</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44822</v>
       </c>
@@ -1306,7 +1309,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44823</v>
       </c>
@@ -1317,8 +1320,11 @@
         <v>44823</v>
       </c>
       <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44824</v>
       </c>
@@ -1332,7 +1338,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44825</v>
       </c>
@@ -1346,7 +1352,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44826</v>
       </c>
@@ -1360,7 +1366,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44827</v>
       </c>
@@ -1374,7 +1380,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44828</v>
       </c>
@@ -1388,7 +1394,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44829</v>
       </c>
@@ -1402,7 +1408,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44830</v>
       </c>
@@ -1414,7 +1420,7 @@
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44831</v>
       </c>
@@ -1428,7 +1434,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44832</v>
       </c>
@@ -1438,7 +1444,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44833</v>
       </c>
@@ -1452,7 +1458,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44834</v>
       </c>
@@ -1466,7 +1472,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44835</v>
       </c>
